--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3800063333333334</v>
+        <v>0.7697463333333333</v>
       </c>
       <c r="H2">
-        <v>1.140019</v>
+        <v>2.309239</v>
       </c>
       <c r="I2">
-        <v>0.002363300787678963</v>
+        <v>0.004764162270914757</v>
       </c>
       <c r="J2">
-        <v>0.002363300787678963</v>
+        <v>0.004764162270914756</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.221457</v>
+        <v>56.16842399999999</v>
       </c>
       <c r="N2">
-        <v>192.664371</v>
+        <v>168.505272</v>
       </c>
       <c r="O2">
-        <v>0.8366610301096816</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="P2">
-        <v>0.8366610301096816</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="Q2">
-        <v>24.40456039589434</v>
+        <v>43.23543842311199</v>
       </c>
       <c r="R2">
-        <v>219.641043563049</v>
+        <v>389.1189458080079</v>
       </c>
       <c r="S2">
-        <v>0.001977281671478503</v>
+        <v>0.003821526646208819</v>
       </c>
       <c r="T2">
-        <v>0.001977281671478503</v>
+        <v>0.003821526646208818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3800063333333334</v>
+        <v>0.7697463333333333</v>
       </c>
       <c r="H3">
-        <v>1.140019</v>
+        <v>2.309239</v>
       </c>
       <c r="I3">
-        <v>0.002363300787678963</v>
+        <v>0.004764162270914757</v>
       </c>
       <c r="J3">
-        <v>0.002363300787678963</v>
+        <v>0.004764162270914756</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.747611</v>
       </c>
       <c r="O3">
-        <v>0.1378666371208897</v>
+        <v>0.1511290331103168</v>
       </c>
       <c r="P3">
-        <v>0.1378666371208896</v>
+        <v>0.1511290331103167</v>
       </c>
       <c r="Q3">
-        <v>4.021431082734334</v>
+        <v>8.145869053114334</v>
       </c>
       <c r="R3">
-        <v>36.192879744609</v>
+        <v>73.31282147802899</v>
       </c>
       <c r="S3">
-        <v>0.0003258203321024483</v>
+        <v>0.000720003237583998</v>
       </c>
       <c r="T3">
-        <v>0.0003258203321024483</v>
+        <v>0.0007200032375839978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3800063333333334</v>
+        <v>0.7697463333333333</v>
       </c>
       <c r="H4">
-        <v>1.140019</v>
+        <v>2.309239</v>
       </c>
       <c r="I4">
-        <v>0.002363300787678963</v>
+        <v>0.004764162270914757</v>
       </c>
       <c r="J4">
-        <v>0.002363300787678963</v>
+        <v>0.004764162270914756</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.955236666666667</v>
+        <v>3.262797333333333</v>
       </c>
       <c r="N4">
-        <v>5.86571</v>
+        <v>9.788392</v>
       </c>
       <c r="O4">
-        <v>0.02547233276942866</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="P4">
-        <v>0.02547233276942866</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="Q4">
-        <v>0.743002316498889</v>
+        <v>2.511526283743111</v>
       </c>
       <c r="R4">
-        <v>6.68702084849</v>
+        <v>22.603736553688</v>
       </c>
       <c r="S4">
-        <v>6.019878409801141E-05</v>
+        <v>0.000221990685558712</v>
       </c>
       <c r="T4">
-        <v>6.019878409801142E-05</v>
+        <v>0.0002219906855587119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>159.049647</v>
+        <v>0.7697463333333333</v>
       </c>
       <c r="H5">
-        <v>477.148941</v>
+        <v>2.309239</v>
       </c>
       <c r="I5">
-        <v>0.9891470827288694</v>
+        <v>0.004764162270914757</v>
       </c>
       <c r="J5">
-        <v>0.9891470827288696</v>
+        <v>0.004764162270914756</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>64.221457</v>
+        <v>0.009431666666666666</v>
       </c>
       <c r="N5">
-        <v>192.664371</v>
+        <v>0.028295</v>
       </c>
       <c r="O5">
-        <v>0.8366610301096816</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="P5">
-        <v>0.8366610301096816</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="Q5">
-        <v>10214.40006567568</v>
+        <v>0.007259990833888889</v>
       </c>
       <c r="R5">
-        <v>91929.60059108112</v>
+        <v>0.065339917505</v>
       </c>
       <c r="S5">
-        <v>0.8275808171659224</v>
+        <v>6.417015632275203E-07</v>
       </c>
       <c r="T5">
-        <v>0.8275808171659226</v>
+        <v>6.417015632275203E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>477.148941</v>
       </c>
       <c r="I6">
-        <v>0.9891470827288694</v>
+        <v>0.9844000479461552</v>
       </c>
       <c r="J6">
-        <v>0.9891470827288696</v>
+        <v>0.984400047946155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.582537</v>
+        <v>56.16842399999999</v>
       </c>
       <c r="N6">
-        <v>31.747611</v>
+        <v>168.505272</v>
       </c>
       <c r="O6">
-        <v>0.1378666371208897</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="P6">
-        <v>0.1378666371208896</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="Q6">
-        <v>1683.148774214439</v>
+        <v>8933.568009746328</v>
       </c>
       <c r="R6">
-        <v>15148.33896792995</v>
+        <v>80402.11208771696</v>
       </c>
       <c r="S6">
-        <v>0.1363703819137677</v>
+        <v>0.789626968989273</v>
       </c>
       <c r="T6">
-        <v>0.1363703819137677</v>
+        <v>0.7896269689892728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>477.148941</v>
       </c>
       <c r="I7">
-        <v>0.9891470827288694</v>
+        <v>0.9844000479461552</v>
       </c>
       <c r="J7">
-        <v>0.9891470827288696</v>
+        <v>0.984400047946155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.955236666666667</v>
+        <v>10.582537</v>
       </c>
       <c r="N7">
-        <v>5.86571</v>
+        <v>31.747611</v>
       </c>
       <c r="O7">
-        <v>0.02547233276942866</v>
+        <v>0.1511290331103168</v>
       </c>
       <c r="P7">
-        <v>0.02547233276942866</v>
+        <v>0.1511290331103167</v>
       </c>
       <c r="Q7">
-        <v>310.97970163479</v>
+        <v>1683.148774214439</v>
       </c>
       <c r="R7">
-        <v>2798.81731471311</v>
+        <v>15148.33896792995</v>
       </c>
       <c r="S7">
-        <v>0.02519588364917934</v>
+        <v>0.1487714274398519</v>
       </c>
       <c r="T7">
-        <v>0.02519588364917934</v>
+        <v>0.1487714274398518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9146986666666667</v>
+        <v>159.049647</v>
       </c>
       <c r="H8">
-        <v>2.744096</v>
+        <v>477.148941</v>
       </c>
       <c r="I8">
-        <v>0.005688610661986064</v>
+        <v>0.9844000479461552</v>
       </c>
       <c r="J8">
-        <v>0.005688610661986065</v>
+        <v>0.984400047946155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.221457</v>
+        <v>3.262797333333333</v>
       </c>
       <c r="N8">
-        <v>192.664371</v>
+        <v>9.788392</v>
       </c>
       <c r="O8">
-        <v>0.8366610301096816</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="P8">
-        <v>0.8366610301096816</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="Q8">
-        <v>58.74328108929067</v>
+        <v>518.9467640992081</v>
       </c>
       <c r="R8">
-        <v>528.689529803616</v>
+        <v>4670.520876892872</v>
       </c>
       <c r="S8">
-        <v>0.004759438856350179</v>
+        <v>0.04586905925553979</v>
       </c>
       <c r="T8">
-        <v>0.00475943885635018</v>
+        <v>0.04586905925553977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9146986666666667</v>
+        <v>159.049647</v>
       </c>
       <c r="H9">
-        <v>2.744096</v>
+        <v>477.148941</v>
       </c>
       <c r="I9">
-        <v>0.005688610661986064</v>
+        <v>0.9844000479461552</v>
       </c>
       <c r="J9">
-        <v>0.005688610661986065</v>
+        <v>0.984400047946155</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>10.582537</v>
+        <v>0.009431666666666666</v>
       </c>
       <c r="N9">
-        <v>31.747611</v>
+        <v>0.028295</v>
       </c>
       <c r="O9">
-        <v>0.1378666371208897</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="P9">
-        <v>0.1378666371208896</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="Q9">
-        <v>9.679832483850667</v>
+        <v>1.500103253955</v>
       </c>
       <c r="R9">
-        <v>87.118492354656</v>
+        <v>13.500929285595</v>
       </c>
       <c r="S9">
-        <v>0.0007842696218580567</v>
+        <v>0.0001325922614904979</v>
       </c>
       <c r="T9">
-        <v>0.0007842696218580567</v>
+        <v>0.0001325922614904979</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9146986666666667</v>
+        <v>1.407514666666667</v>
       </c>
       <c r="H10">
-        <v>2.744096</v>
+        <v>4.222544</v>
       </c>
       <c r="I10">
-        <v>0.005688610661986064</v>
+        <v>0.008711478028942643</v>
       </c>
       <c r="J10">
-        <v>0.005688610661986065</v>
+        <v>0.008711478028942642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.955236666666667</v>
+        <v>56.16842399999999</v>
       </c>
       <c r="N10">
-        <v>5.86571</v>
+        <v>168.505272</v>
       </c>
       <c r="O10">
-        <v>0.02547233276942866</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="P10">
-        <v>0.02547233276942866</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="Q10">
-        <v>1.788452372017778</v>
+        <v>79.05788058355199</v>
       </c>
       <c r="R10">
-        <v>16.09607134816</v>
+        <v>711.5209252519679</v>
       </c>
       <c r="S10">
-        <v>0.0001449021837778289</v>
+        <v>0.006987827769576544</v>
       </c>
       <c r="T10">
-        <v>0.0001449021837778289</v>
+        <v>0.006987827769576543</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.450387</v>
+        <v>1.407514666666667</v>
       </c>
       <c r="H11">
-        <v>1.351161</v>
+        <v>4.222544</v>
       </c>
       <c r="I11">
-        <v>0.00280100582146534</v>
+        <v>0.008711478028942643</v>
       </c>
       <c r="J11">
-        <v>0.00280100582146534</v>
+        <v>0.008711478028942642</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>64.221457</v>
+        <v>10.582537</v>
       </c>
       <c r="N11">
-        <v>192.664371</v>
+        <v>31.747611</v>
       </c>
       <c r="O11">
-        <v>0.8366610301096816</v>
+        <v>0.1511290331103168</v>
       </c>
       <c r="P11">
-        <v>0.8366610301096816</v>
+        <v>0.1511290331103167</v>
       </c>
       <c r="Q11">
-        <v>28.924509353859</v>
+        <v>14.89507603804267</v>
       </c>
       <c r="R11">
-        <v>260.320584184731</v>
+        <v>134.055684342384</v>
       </c>
       <c r="S11">
-        <v>0.002343492415930406</v>
+        <v>0.00131655725147587</v>
       </c>
       <c r="T11">
-        <v>0.002343492415930406</v>
+        <v>0.001316557251475869</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.450387</v>
+        <v>1.407514666666667</v>
       </c>
       <c r="H12">
-        <v>1.351161</v>
+        <v>4.222544</v>
       </c>
       <c r="I12">
-        <v>0.00280100582146534</v>
+        <v>0.008711478028942643</v>
       </c>
       <c r="J12">
-        <v>0.00280100582146534</v>
+        <v>0.008711478028942642</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.582537</v>
+        <v>3.262797333333333</v>
       </c>
       <c r="N12">
-        <v>31.747611</v>
+        <v>9.788392</v>
       </c>
       <c r="O12">
-        <v>0.1378666371208897</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="P12">
-        <v>0.1378666371208896</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="Q12">
-        <v>4.766237091819001</v>
+        <v>4.592435101027555</v>
       </c>
       <c r="R12">
-        <v>42.896133826371</v>
+        <v>41.331915909248</v>
       </c>
       <c r="S12">
-        <v>0.0003861652531614615</v>
+        <v>0.0004059196286576773</v>
       </c>
       <c r="T12">
-        <v>0.0003861652531614615</v>
+        <v>0.0004059196286576772</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.407514666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.222544</v>
+      </c>
+      <c r="I13">
+        <v>0.008711478028942643</v>
+      </c>
+      <c r="J13">
+        <v>0.008711478028942642</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.009431666666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.028295</v>
+      </c>
+      <c r="O13">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="P13">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="Q13">
+        <v>0.01327520916444444</v>
+      </c>
+      <c r="R13">
+        <v>0.11947688248</v>
+      </c>
+      <c r="S13">
+        <v>1.173379232551064E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.173379232551064E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3432253333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.029676</v>
+      </c>
+      <c r="I14">
+        <v>0.002124311753987536</v>
+      </c>
+      <c r="J14">
+        <v>0.002124311753987535</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>56.16842399999999</v>
+      </c>
+      <c r="N14">
+        <v>168.505272</v>
+      </c>
+      <c r="O14">
+        <v>0.8021403195141494</v>
+      </c>
+      <c r="P14">
+        <v>0.8021403195141494</v>
+      </c>
+      <c r="Q14">
+        <v>19.278426050208</v>
+      </c>
+      <c r="R14">
+        <v>173.505834451872</v>
+      </c>
+      <c r="S14">
+        <v>0.001703996109091225</v>
+      </c>
+      <c r="T14">
+        <v>0.001703996109091225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3432253333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.029676</v>
+      </c>
+      <c r="I15">
+        <v>0.002124311753987536</v>
+      </c>
+      <c r="J15">
+        <v>0.002124311753987535</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.582537</v>
+      </c>
+      <c r="N15">
+        <v>31.747611</v>
+      </c>
+      <c r="O15">
+        <v>0.1511290331103168</v>
+      </c>
+      <c r="P15">
+        <v>0.1511290331103167</v>
+      </c>
+      <c r="Q15">
+        <v>3.632194789337333</v>
+      </c>
+      <c r="R15">
+        <v>32.689753104036</v>
+      </c>
+      <c r="S15">
+        <v>0.0003210451814050174</v>
+      </c>
+      <c r="T15">
+        <v>0.0003210451814050173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.450387</v>
-      </c>
-      <c r="H13">
-        <v>1.351161</v>
-      </c>
-      <c r="I13">
-        <v>0.00280100582146534</v>
-      </c>
-      <c r="J13">
-        <v>0.00280100582146534</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.955236666666667</v>
-      </c>
-      <c r="N13">
-        <v>5.86571</v>
-      </c>
-      <c r="O13">
-        <v>0.02547233276942866</v>
-      </c>
-      <c r="P13">
-        <v>0.02547233276942866</v>
-      </c>
-      <c r="Q13">
-        <v>0.8806131765900002</v>
-      </c>
-      <c r="R13">
-        <v>7.92551858931</v>
-      </c>
-      <c r="S13">
-        <v>7.134815237347202E-05</v>
-      </c>
-      <c r="T13">
-        <v>7.134815237347202E-05</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3432253333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.029676</v>
+      </c>
+      <c r="I16">
+        <v>0.002124311753987536</v>
+      </c>
+      <c r="J16">
+        <v>0.002124311753987535</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.262797333333333</v>
+      </c>
+      <c r="N16">
+        <v>9.788392</v>
+      </c>
+      <c r="O16">
+        <v>0.04659595390231912</v>
+      </c>
+      <c r="P16">
+        <v>0.04659595390231912</v>
+      </c>
+      <c r="Q16">
+        <v>1.119874702332444</v>
+      </c>
+      <c r="R16">
+        <v>10.078872320992</v>
+      </c>
+      <c r="S16">
+        <v>9.898433256295791E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.898433256295788E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3432253333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.029676</v>
+      </c>
+      <c r="I17">
+        <v>0.002124311753987536</v>
+      </c>
+      <c r="J17">
+        <v>0.002124311753987535</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.009431666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.028295</v>
+      </c>
+      <c r="O17">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="P17">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="Q17">
+        <v>0.003237186935555555</v>
+      </c>
+      <c r="R17">
+        <v>0.02913468242</v>
+      </c>
+      <c r="S17">
+        <v>2.861309283352049E-07</v>
+      </c>
+      <c r="T17">
+        <v>2.861309283352049E-07</v>
       </c>
     </row>
   </sheetData>
